--- a/BOM/Total_BOM.xlsx
+++ b/BOM/Total_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>Qty</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,28 +615,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>0.15</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F59" si="0">E6*A6</f>
+        <f t="shared" ref="F6:F60" si="0">E6*A6</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1159,21 +1159,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>3</v>
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30">
-        <v>16.5</v>
-      </c>
-      <c r="F30">
-        <f>E30*A30</f>
-        <v>49.5</v>
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,17 +1183,17 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F32" si="1">E31*A31</f>
-        <v>4.9499999999999993</v>
+        <f>E31*A31</f>
+        <v>49.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,46 +1201,43 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32">
+        <v>1.65</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F33" si="1">E32*A32</f>
+        <v>4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>80</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33">
-        <v>0.02</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -1251,15 +1250,15 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -1272,15 +1271,15 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -1293,15 +1292,15 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -1314,15 +1313,15 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -1335,42 +1334,42 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -1379,10 +1378,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -1395,15 +1394,15 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -1416,54 +1415,54 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E43">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E44">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
@@ -1476,93 +1475,93 @@
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E48">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15</v>
-      </c>
-      <c r="B49" s="1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -1575,15 +1574,15 @@
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1596,15 +1595,15 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1617,15 +1616,15 @@
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -1638,15 +1637,15 @@
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1659,15 +1658,15 @@
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -1680,15 +1679,15 @@
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" s="1">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1701,15 +1700,15 @@
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>470</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1722,15 +1721,15 @@
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>470</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1743,37 +1742,58 @@
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>15</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>64</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>65</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>0.25</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H59">
-        <f>SUM(F30:F59)</f>
+      <c r="H60">
+        <f>SUM(F31:F60)</f>
         <v>77.520000000000024</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60"/>
-      <c r="F60" s="2"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
   <sortState ref="C28:F54">
